--- a/medicine/Pharmacie/Pharmacie_du_Parc/Pharmacie_du_Parc.xlsx
+++ b/medicine/Pharmacie/Pharmacie_du_Parc/Pharmacie_du_Parc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pharmacie du Parc est une pharmacie située au 26 rue du Président-Wilson à Vichy, le long du parc des Sources dans le département français de l'Allier (région Auvergne-Rhône-Alpes).
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créée en 1900, elle est toujours en activité. Si sa devanture a été refaite au début des années 1960[1], elle a conservé l'essentiel de son intérieur d'origine, décors en boiserie en stuc et son mobilier. Ce mobilier consiste en de grands panneaux vitrés soutenus par deux corps sur châssis bois à entrecolonnement géminée, des frises de guirlandes sous corniche à modillons, des comptoirs et des présentoirs présentant des vitrines, des tiroirs et des galeries décorées de guirlandes et de feuillages sculptés[1].  
-Le décor intérieur de boiserie, les comptoirs et présentoirs sont inscrits au titre des monuments historiques par arrêté du 4 mars 1991[1].  
-Elle est l'une des rares commerces de la station thermale, avec la confiserie Aux Marocains, subsistantes de la florissante période vichyssoise sous le Second Empire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créée en 1900, elle est toujours en activité. Si sa devanture a été refaite au début des années 1960, elle a conservé l'essentiel de son intérieur d'origine, décors en boiserie en stuc et son mobilier. Ce mobilier consiste en de grands panneaux vitrés soutenus par deux corps sur châssis bois à entrecolonnement géminée, des frises de guirlandes sous corniche à modillons, des comptoirs et des présentoirs présentant des vitrines, des tiroirs et des galeries décorées de guirlandes et de feuillages sculptés.  
+Le décor intérieur de boiserie, les comptoirs et présentoirs sont inscrits au titre des monuments historiques par arrêté du 4 mars 1991.  
+Elle est l'une des rares commerces de la station thermale, avec la confiserie Aux Marocains, subsistantes de la florissante période vichyssoise sous le Second Empire.
 </t>
         </is>
       </c>
